--- a/src/main/resources/resource/NpcResource.xlsx
+++ b/src/main/resources/resource/NpcResource.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>objectId</t>
+    <t>npcId</t>
   </si>
   <si>
     <t>objectName</t>
@@ -34,13 +34,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>n2001</t>
-  </si>
-  <si>
     <t>石头</t>
-  </si>
-  <si>
-    <t>n2002</t>
   </si>
   <si>
     <t>守卫塔</t>
@@ -53,8 +47,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,55 +59,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,54 +75,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +106,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -202,10 +167,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,36 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,15 +426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +459,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -515,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,7 +975,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1012,11 +1006,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1029,11 +1023,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>

--- a/src/main/resources/resource/NpcResource.xlsx
+++ b/src/main/resources/resource/NpcResource.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>npcId</t>
   </si>
   <si>
-    <t>objectName</t>
+    <t>npcName</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>sceneId</t>
+    <t>mapId</t>
   </si>
   <si>
     <t>x</t>
@@ -34,10 +34,19 @@
     <t>y</t>
   </si>
   <si>
-    <t>石头</t>
+    <t>大刀侍卫</t>
   </si>
   <si>
-    <t>守卫塔</t>
+    <t>中原老兵</t>
+  </si>
+  <si>
+    <t>金矿矿主</t>
+  </si>
+  <si>
+    <t>奇异毒草</t>
+  </si>
+  <si>
+    <t>矿区警卫</t>
   </si>
 </sst>
 </file>
@@ -59,6 +68,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -67,34 +119,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,20 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -129,7 +174,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,59 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +420,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,26 +456,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +472,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,11 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,13 +981,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
@@ -1007,13 +1016,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1024,7 +1036,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2002</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1032,10 +1044,73 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>2002</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2003</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2004</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2001</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/resource/NpcResource.xlsx
+++ b/src/main/resources/resource/NpcResource.xlsx
@@ -54,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -68,22 +68,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,8 +98,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,20 +166,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -140,73 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,46 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,16 +492,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +984,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E6">
         <v>2</v>
